--- a/Paolo/FINAL/Bases Finales/Info_2023.xlsx
+++ b/Paolo/FINAL/Bases Finales/Info_2023.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LAPTOP ACER\REPOSITORIO_GITHUB\OEFA_SMER\Paolo\Scripts\Factores\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LAPTOP ACER\REPOSITORIO_GITHUB\OEFA_SMER\Paolo\Final\Bases Finales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB5A7E2-C1B3-460E-85BA-29B03B629CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A83F0BF-5507-4179-93D3-F01E7B43E2BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Base!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Consolidado!$A$1:$T$99</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Consolidado!$A$1:$U$99</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Graduación!$A$1:$G$231</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Nuevos!$A$1:$D$49</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$C$49</definedName>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1676" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="304">
   <si>
     <t>Correlativo</t>
   </si>
@@ -975,6 +975,9 @@
   </si>
   <si>
     <t>Propuesta de cálculo de multa</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -1009,7 +1012,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1040,8 +1043,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1088,11 +1097,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1147,6 +1165,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2716,11 +2740,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:T99"/>
+  <dimension ref="A1:U99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T18" sqref="T18"/>
+      <selection pane="bottomLeft" activeCell="U100" sqref="U100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2743,7 +2767,7 @@
     <col min="20" max="20" width="26.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2804,8 +2828,11 @@
       <c r="T1" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U1" s="21" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2860,8 +2887,11 @@
       <c r="T2" s="4" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U2" s="3">
+        <v>26991</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2916,8 +2946,11 @@
       <c r="T3" s="4" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U3" s="3">
+        <v>25372</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -2972,8 +3005,11 @@
       <c r="T4" s="4" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U4" s="3">
+        <v>25373</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -3028,8 +3064,11 @@
       <c r="T5" s="4" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U5" s="3">
+        <v>25374</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -3056,8 +3095,11 @@
       <c r="T6" s="4" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U6" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -3112,8 +3154,11 @@
       <c r="T7" s="4" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U7" s="3">
+        <v>25461</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -3168,8 +3213,11 @@
       <c r="T8" s="4" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U8" s="3">
+        <v>25462</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>4</v>
       </c>
@@ -3228,8 +3276,11 @@
       <c r="T9" s="4" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U9" s="3">
+        <v>25463</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>4</v>
       </c>
@@ -3288,8 +3339,11 @@
       <c r="T10" s="4" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U10" s="3">
+        <v>25463</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>4</v>
       </c>
@@ -3348,8 +3402,11 @@
       <c r="T11" s="4" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U11" s="3">
+        <v>25463</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>4</v>
       </c>
@@ -3408,8 +3465,11 @@
       <c r="T12" s="4" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U12" s="3">
+        <v>25463</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -3468,8 +3528,11 @@
       <c r="T13" s="4" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U13" s="3">
+        <v>25463</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>4</v>
       </c>
@@ -3528,8 +3591,11 @@
       <c r="T14" s="4" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U14" s="3">
+        <v>25463</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>4</v>
       </c>
@@ -3588,8 +3654,11 @@
       <c r="T15" s="4" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U15" s="3">
+        <v>25463</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>4</v>
       </c>
@@ -3648,8 +3717,11 @@
       <c r="T16" s="4" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U16" s="3">
+        <v>25463</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>4</v>
       </c>
@@ -3708,8 +3780,11 @@
       <c r="T17" s="4" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U17" s="3">
+        <v>25463</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>5</v>
       </c>
@@ -3736,8 +3811,11 @@
       <c r="T18" s="4" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U18" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>6</v>
       </c>
@@ -3764,8 +3842,11 @@
       <c r="T19" s="4" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U19" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>7</v>
       </c>
@@ -3820,8 +3901,11 @@
       <c r="T20" s="4" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U20" s="3">
+        <v>12059</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>7</v>
       </c>
@@ -3876,8 +3960,11 @@
       <c r="T21" s="4" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U21" s="3">
+        <v>12060</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>7</v>
       </c>
@@ -3932,8 +4019,11 @@
       <c r="T22" s="4" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U22" s="3">
+        <v>12061</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>7</v>
       </c>
@@ -3988,8 +4078,11 @@
       <c r="T23" s="4" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U23" s="3">
+        <v>12062</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>7</v>
       </c>
@@ -4044,8 +4137,11 @@
       <c r="T24" s="4" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U24" s="3">
+        <v>12063</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>8</v>
       </c>
@@ -4072,8 +4168,11 @@
       <c r="T25" s="4" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U25" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>9</v>
       </c>
@@ -4100,8 +4199,11 @@
       <c r="T26" s="4" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U26" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>10</v>
       </c>
@@ -4128,8 +4230,11 @@
       <c r="T27" s="4" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U27" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>11</v>
       </c>
@@ -4184,8 +4289,11 @@
       <c r="T28" s="4" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U28" s="3">
+        <v>24253</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>12</v>
       </c>
@@ -4240,8 +4348,11 @@
       <c r="T29" s="4" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U29" s="3">
+        <v>27010</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>12</v>
       </c>
@@ -4296,8 +4407,11 @@
       <c r="T30" s="4" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U30" s="3">
+        <v>27011</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>12</v>
       </c>
@@ -4352,8 +4466,11 @@
       <c r="T31" s="4" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U31" s="3">
+        <v>27012</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>12</v>
       </c>
@@ -4408,8 +4525,11 @@
       <c r="T32" s="4" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U32" s="3">
+        <v>27013</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>12</v>
       </c>
@@ -4464,8 +4584,11 @@
       <c r="T33" s="4" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U33" s="3">
+        <v>27014</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>13</v>
       </c>
@@ -4492,8 +4615,11 @@
       <c r="T34" s="4" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U34" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>14</v>
       </c>
@@ -4520,8 +4646,11 @@
       <c r="T35" s="4" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U35" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>15</v>
       </c>
@@ -4548,8 +4677,11 @@
       <c r="T36" s="4" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U36" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>16</v>
       </c>
@@ -4576,8 +4708,11 @@
       <c r="T37" s="4" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U37" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>17</v>
       </c>
@@ -4632,8 +4767,11 @@
       <c r="T38" s="4" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U38" s="3">
+        <v>28121</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>17</v>
       </c>
@@ -4688,8 +4826,11 @@
       <c r="T39" s="4" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U39" s="3">
+        <v>28122</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>18</v>
       </c>
@@ -4742,8 +4883,11 @@
       <c r="T40" s="4" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U40" s="3">
+        <v>24255</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>19</v>
       </c>
@@ -4770,8 +4914,11 @@
       <c r="T41" s="4" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U41" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>20</v>
       </c>
@@ -4830,8 +4977,11 @@
       <c r="T42" s="4" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U42" s="3">
+        <v>24236</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>20</v>
       </c>
@@ -4890,8 +5040,11 @@
       <c r="T43" s="4" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U43" s="3">
+        <v>24236</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>20</v>
       </c>
@@ -4950,8 +5103,11 @@
       <c r="T44" s="4" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U44" s="3">
+        <v>24237</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>20</v>
       </c>
@@ -5010,8 +5166,11 @@
       <c r="T45" s="4" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U45" s="3">
+        <v>24237</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>20</v>
       </c>
@@ -5070,8 +5229,11 @@
       <c r="T46" s="4" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U46" s="3">
+        <v>24237</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>20</v>
       </c>
@@ -5130,8 +5292,11 @@
       <c r="T47" s="4" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U47" s="3">
+        <v>24238</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>20</v>
       </c>
@@ -5190,8 +5355,11 @@
       <c r="T48" s="4" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U48" s="3">
+        <v>24238</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>20</v>
       </c>
@@ -5250,8 +5418,11 @@
       <c r="T49" s="4" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U49" s="3">
+        <v>24238</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>20</v>
       </c>
@@ -5306,8 +5477,11 @@
       <c r="T50" s="4" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U50" s="3">
+        <v>24239</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>21</v>
       </c>
@@ -5333,8 +5507,11 @@
       <c r="T51" s="4" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U51" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>22</v>
       </c>
@@ -5361,8 +5538,11 @@
       <c r="T52" s="4" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U52" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>23</v>
       </c>
@@ -5415,8 +5595,11 @@
       <c r="T53" s="4" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U53" s="3">
+        <v>24566</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>24</v>
       </c>
@@ -5471,8 +5654,11 @@
       <c r="T54" s="4" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U54" s="3">
+        <v>14983</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>25</v>
       </c>
@@ -5527,8 +5713,11 @@
       <c r="T55" s="4" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U55" s="3">
+        <v>25570</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>25</v>
       </c>
@@ -5583,8 +5772,11 @@
       <c r="T56" s="4" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U56" s="3">
+        <v>25571</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>26</v>
       </c>
@@ -5611,8 +5803,11 @@
       <c r="T57" s="4" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U57" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>27</v>
       </c>
@@ -5639,8 +5834,11 @@
       <c r="T58" s="4" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U58" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>28</v>
       </c>
@@ -5693,8 +5891,11 @@
       <c r="T59" s="4" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U59" s="3">
+        <v>23976</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>28</v>
       </c>
@@ -5747,8 +5948,11 @@
       <c r="T60" s="4" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U60" s="3">
+        <v>23977</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>28</v>
       </c>
@@ -5801,8 +6005,11 @@
       <c r="T61" s="4" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U61" s="3">
+        <v>23978</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>28</v>
       </c>
@@ -5855,8 +6062,11 @@
       <c r="T62" s="4" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U62" s="3">
+        <v>23979</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>28</v>
       </c>
@@ -5909,8 +6119,11 @@
       <c r="T63" s="4" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U63" s="3">
+        <v>23980</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>28</v>
       </c>
@@ -5963,8 +6176,11 @@
       <c r="T64" s="4" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U64" s="3">
+        <v>23981</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>28</v>
       </c>
@@ -6017,8 +6233,11 @@
       <c r="T65" s="4" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U65" s="3">
+        <v>23982</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>28</v>
       </c>
@@ -6071,8 +6290,11 @@
       <c r="T66" s="4" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U66" s="3">
+        <v>23983</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>28</v>
       </c>
@@ -6125,8 +6347,11 @@
       <c r="T67" s="4" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U67" s="3">
+        <v>23984</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>28</v>
       </c>
@@ -6179,8 +6404,11 @@
       <c r="T68" s="4" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U68" s="3">
+        <v>23985</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>28</v>
       </c>
@@ -6233,8 +6461,11 @@
       <c r="T69" s="4" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U69" s="3">
+        <v>23986</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>28</v>
       </c>
@@ -6287,8 +6518,11 @@
       <c r="T70" s="4" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U70" s="3">
+        <v>23987</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <v>28</v>
       </c>
@@ -6341,8 +6575,11 @@
       <c r="T71" s="4" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U71" s="3">
+        <v>23988</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
         <v>29</v>
       </c>
@@ -6369,8 +6606,11 @@
       <c r="T72" s="4" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U72" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>30</v>
       </c>
@@ -6397,8 +6637,11 @@
       <c r="T73" s="4" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U73" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
         <v>31</v>
       </c>
@@ -6453,8 +6696,11 @@
       <c r="T74" s="4" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U74" s="3">
+        <v>24547</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
         <v>32</v>
       </c>
@@ -6509,8 +6755,11 @@
       <c r="T75" s="4" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U75" s="3">
+        <v>23927</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
         <v>32</v>
       </c>
@@ -6565,8 +6814,11 @@
       <c r="T76" s="4" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U76" s="3">
+        <v>23928</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
         <v>32</v>
       </c>
@@ -6621,8 +6873,11 @@
       <c r="T77" s="4" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U77" s="3">
+        <v>23929</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
         <v>33</v>
       </c>
@@ -6677,8 +6932,11 @@
       <c r="T78" s="4" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U78" s="3">
+        <v>24316</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
         <v>34</v>
       </c>
@@ -6731,8 +6989,11 @@
       <c r="T79" s="4" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U79" s="22" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
         <v>35</v>
       </c>
@@ -6785,8 +7046,11 @@
       <c r="T80" s="4" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U80" s="3">
+        <v>25240</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>36</v>
       </c>
@@ -6839,8 +7103,11 @@
       <c r="T81" s="4" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U81" s="3">
+        <v>25456</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>36</v>
       </c>
@@ -6893,8 +7160,11 @@
       <c r="T82" s="4" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U82" s="3">
+        <v>25457</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
         <v>36</v>
       </c>
@@ -6947,8 +7217,11 @@
       <c r="T83" s="4" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U83" s="3">
+        <v>25458</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
         <v>36</v>
       </c>
@@ -7001,8 +7274,11 @@
       <c r="T84" s="4" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U84" s="3">
+        <v>25459</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
         <v>37</v>
       </c>
@@ -7057,8 +7333,11 @@
       <c r="T85" s="4" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U85" s="3">
+        <v>24424</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
         <v>38</v>
       </c>
@@ -7117,8 +7396,11 @@
       <c r="T86" s="4" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U86" s="3">
+        <v>25334</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
         <v>38</v>
       </c>
@@ -7177,8 +7459,11 @@
       <c r="T87" s="4" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U87" s="3">
+        <v>25334</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
         <v>38</v>
       </c>
@@ -7237,8 +7522,11 @@
       <c r="T88" s="4" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U88" s="3">
+        <v>25334</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
         <v>38</v>
       </c>
@@ -7293,8 +7581,11 @@
       <c r="T89" s="4" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U89" s="3">
+        <v>25335</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
         <v>39</v>
       </c>
@@ -7321,8 +7612,11 @@
       <c r="T90" s="4" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U90" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
         <v>40</v>
       </c>
@@ -7349,8 +7643,11 @@
       <c r="T91" s="4" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U91" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
         <v>41</v>
       </c>
@@ -7403,8 +7700,11 @@
       <c r="T92" s="4" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U92" s="3">
+        <v>25564</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
         <v>42</v>
       </c>
@@ -7431,8 +7731,11 @@
       <c r="T93" s="4" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U93" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
         <v>43</v>
       </c>
@@ -7459,8 +7762,11 @@
       <c r="T94" s="4" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U94" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
         <v>44</v>
       </c>
@@ -7515,8 +7821,11 @@
       <c r="T95" s="4" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U95" s="3">
+        <v>28076</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
         <v>45</v>
       </c>
@@ -7543,8 +7852,11 @@
       <c r="T96" s="4" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U96" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
         <v>46</v>
       </c>
@@ -7597,8 +7909,11 @@
       <c r="T97" s="4" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U97" s="3">
+        <v>25548</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A98" s="3">
         <v>47</v>
       </c>
@@ -7653,8 +7968,11 @@
       <c r="T98" s="4" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U98" s="3">
+        <v>27057</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
         <v>48</v>
       </c>
@@ -7709,9 +8027,12 @@
       <c r="T99" s="4" t="s">
         <v>301</v>
       </c>
+      <c r="U99" s="3">
+        <v>7020</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T99" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
+  <autoFilter ref="A1:U99" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
